--- a/reports/raw-views/assets/tables/meso_category_usage_frequency.xlsx
+++ b/reports/raw-views/assets/tables/meso_category_usage_frequency.xlsx
@@ -568,7 +568,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E7" t="n">
         <v>3</v>
@@ -596,55 +596,55 @@
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>linguagem e representação</t>
+          <t>maternidade</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>81</v>
+        <v>5</v>
       </c>
       <c r="C9" t="n">
-        <v>240</v>
+        <v>15</v>
       </c>
       <c r="D9" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="E9" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>sociedade e consumo</t>
+          <t>raça e racismo</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>59</v>
+        <v>3</v>
       </c>
       <c r="C10" t="n">
-        <v>202</v>
+        <v>23</v>
       </c>
       <c r="D10" t="n">
         <v>6</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>raça e racismo</t>
+          <t>sociedade e consumo</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3</v>
+        <v>59</v>
       </c>
       <c r="C11" t="n">
-        <v>23</v>
+        <v>202</v>
       </c>
       <c r="D11" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="E11" t="n">
         <v>5</v>
@@ -653,77 +653,77 @@
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
         <is>
-          <t>recreação, lazer e entretenimento</t>
+          <t>linguagem e representação</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>138</v>
+        <v>81</v>
       </c>
       <c r="C12" t="n">
-        <v>462</v>
+        <v>240</v>
       </c>
       <c r="D12" t="n">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="E12" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
         <is>
-          <t>família</t>
+          <t>violência</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="C13" t="n">
-        <v>162</v>
+        <v>96</v>
       </c>
       <c r="D13" t="n">
-        <v>51</v>
+        <v>8</v>
       </c>
       <c r="E13" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>maternidade</t>
+          <t>recreação, lazer e entretenimento</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>5</v>
+        <v>138</v>
       </c>
       <c r="C14" t="n">
-        <v>15</v>
+        <v>462</v>
       </c>
       <c r="D14" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="E14" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
         <is>
-          <t>violência</t>
+          <t>família</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C15" t="n">
-        <v>96</v>
+        <v>162</v>
       </c>
       <c r="D15" t="n">
-        <v>11</v>
+        <v>44</v>
       </c>
       <c r="E15" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="16">
@@ -742,45 +742,45 @@
         <v>2</v>
       </c>
       <c r="E16" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
         <is>
-          <t>questão agrária e territorial</t>
+          <t>desinformação, populismo e polarização</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="C17" t="n">
-        <v>127</v>
+        <v>134</v>
       </c>
       <c r="D17" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="E17" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
         <is>
-          <t>desinformação, populismo e polarização</t>
+          <t>distopia, ficção científica e futuros imaginados</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>39</v>
+        <v>68</v>
       </c>
       <c r="C18" t="n">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D18" t="n">
+        <v>5</v>
+      </c>
+      <c r="E18" t="n">
         <v>7</v>
-      </c>
-      <c r="E18" t="n">
-        <v>9</v>
       </c>
     </row>
     <row r="19">
@@ -796,48 +796,48 @@
         <v>114</v>
       </c>
       <c r="D19" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E19" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
         <is>
-          <t>moradia e habitação</t>
+          <t>questão agrária e territorial</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="C20" t="n">
-        <v>18</v>
+        <v>127</v>
       </c>
       <c r="D20" t="n">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="E20" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
         <is>
-          <t>distopia, ficção científica e futuros imaginados</t>
+          <t>moradia e habitação</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>68</v>
+        <v>6</v>
       </c>
       <c r="C21" t="n">
-        <v>121</v>
+        <v>18</v>
       </c>
       <c r="D21" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="E21" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22">
@@ -862,115 +862,115 @@
     <row r="23">
       <c r="A23" s="1" t="inlineStr">
         <is>
-          <t>alimentação e tratamentos tradicionais</t>
+          <t>territorialidade e colonialismo</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="C23" t="n">
-        <v>116</v>
+        <v>86</v>
       </c>
       <c r="D23" t="n">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="E23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="inlineStr">
         <is>
-          <t>sonoridade e paisagem sonora</t>
+          <t>violências e preconceitos de gênero</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>49</v>
+        <v>16</v>
       </c>
       <c r="C24" t="n">
-        <v>140</v>
+        <v>70</v>
       </c>
       <c r="D24" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="E24" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="inlineStr">
         <is>
-          <t>territorialidade e colonialismo</t>
+          <t>alimentação e tratamentos tradicionais</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="C25" t="n">
-        <v>86</v>
+        <v>116</v>
       </c>
       <c r="D25" t="n">
-        <v>19</v>
+        <v>8</v>
       </c>
       <c r="E25" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="inlineStr">
         <is>
-          <t>violências e preconceitos de gênero</t>
+          <t>sonoridade e paisagem sonora</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>16</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
-        <v>70</v>
+        <v>140</v>
       </c>
       <c r="D26" t="n">
         <v>11</v>
       </c>
       <c r="E26" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="inlineStr">
         <is>
-          <t>direitos humanos</t>
+          <t>gênero e sexualidade</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="C27" t="n">
-        <v>88</v>
+        <v>322</v>
       </c>
       <c r="D27" t="n">
         <v>10</v>
       </c>
       <c r="E27" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="inlineStr">
         <is>
-          <t>crises e desastres ambientais e sociais</t>
+          <t>biografia</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>29</v>
+        <v>10</v>
       </c>
       <c r="C28" t="n">
-        <v>86</v>
+        <v>25</v>
       </c>
       <c r="D28" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="29">
@@ -986,105 +986,105 @@
         <v>286</v>
       </c>
       <c r="D29" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="E29" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="inlineStr">
         <is>
-          <t>solidão</t>
+          <t>direitos humanos</t>
         </is>
       </c>
       <c r="B30" t="n">
+        <v>26</v>
+      </c>
+      <c r="C30" t="n">
+        <v>88</v>
+      </c>
+      <c r="D30" t="n">
         <v>9</v>
       </c>
-      <c r="C30" t="n">
-        <v>27</v>
-      </c>
-      <c r="D30" t="n">
-        <v>15</v>
-      </c>
       <c r="E30" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="inlineStr">
         <is>
-          <t>biografia</t>
+          <t>crises e desastres ambientais e sociais</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="C31" t="n">
-        <v>25</v>
+        <v>86</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="E31" t="n">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="inlineStr">
         <is>
-          <t>saudade, luto ou perda</t>
+          <t>religião, espiritualidade e cosmologias</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>51</v>
+        <v>38</v>
       </c>
       <c r="C32" t="n">
-        <v>110</v>
+        <v>124</v>
       </c>
       <c r="D32" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="E32" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="inlineStr">
         <is>
-          <t>gênero e sexualidade</t>
+          <t>solidão</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>70</v>
+        <v>9</v>
       </c>
       <c r="C33" t="n">
-        <v>322</v>
+        <v>27</v>
       </c>
       <c r="D33" t="n">
+        <v>15</v>
+      </c>
+      <c r="E33" t="n">
         <v>19</v>
-      </c>
-      <c r="E33" t="n">
-        <v>22</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="inlineStr">
         <is>
-          <t>religião, espiritualidade e cosmologias</t>
+          <t>saudade, luto ou perda</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>38</v>
+        <v>51</v>
       </c>
       <c r="C34" t="n">
-        <v>124</v>
+        <v>110</v>
       </c>
       <c r="D34" t="n">
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="E34" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
@@ -1100,45 +1100,45 @@
         <v>380</v>
       </c>
       <c r="D35" t="n">
-        <v>38</v>
+        <v>29</v>
       </c>
       <c r="E35" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="inlineStr">
         <is>
-          <t>vida afetiva</t>
+          <t>dinâmica urbana</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>313</v>
+        <v>168</v>
       </c>
       <c r="C36" t="n">
-        <v>1001</v>
+        <v>427</v>
       </c>
       <c r="D36" t="n">
-        <v>61</v>
+        <v>48</v>
       </c>
       <c r="E36" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="inlineStr">
         <is>
-          <t>dinâmica urbana</t>
+          <t>vida afetiva</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>168</v>
+        <v>313</v>
       </c>
       <c r="C37" t="n">
-        <v>427</v>
+        <v>1001</v>
       </c>
       <c r="D37" t="n">
-        <v>51</v>
+        <v>59</v>
       </c>
       <c r="E37" t="n">
         <v>25</v>
@@ -1147,58 +1147,58 @@
     <row r="38">
       <c r="A38" s="1" t="inlineStr">
         <is>
-          <t>cultural</t>
+          <t>estruturas sociais e econômicas</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>196</v>
+        <v>159</v>
       </c>
       <c r="C38" t="n">
-        <v>660</v>
+        <v>520</v>
       </c>
       <c r="D38" t="n">
-        <v>45</v>
+        <v>23</v>
       </c>
       <c r="E38" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="inlineStr">
         <is>
-          <t>pandemia</t>
+          <t>educação e socialização</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="C39" t="n">
-        <v>304</v>
+        <v>312</v>
       </c>
       <c r="D39" t="n">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="E39" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="inlineStr">
         <is>
-          <t>memória e patrimônio</t>
+          <t>cultural</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>114</v>
+        <v>196</v>
       </c>
       <c r="C40" t="n">
-        <v>379</v>
+        <v>660</v>
       </c>
       <c r="D40" t="n">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="E40" t="n">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="41">
@@ -1214,67 +1214,67 @@
         <v>156</v>
       </c>
       <c r="D41" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E41" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="inlineStr">
         <is>
-          <t>povos originários e comunidades tradicionais</t>
+          <t>memória e patrimônio</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>76</v>
+        <v>114</v>
       </c>
       <c r="C42" t="n">
-        <v>228</v>
+        <v>379</v>
       </c>
       <c r="D42" t="n">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E42" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="inlineStr">
         <is>
-          <t>estruturas sociais e econômicas</t>
+          <t>povos originários e comunidades tradicionais</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>159</v>
+        <v>76</v>
       </c>
       <c r="C43" t="n">
-        <v>520</v>
+        <v>228</v>
       </c>
       <c r="D43" t="n">
-        <v>26</v>
+        <v>19</v>
       </c>
       <c r="E43" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="inlineStr">
         <is>
-          <t>educação e socialização</t>
+          <t>pandemia</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="C44" t="n">
-        <v>312</v>
+        <v>304</v>
       </c>
       <c r="D44" t="n">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="E44" t="n">
-        <v>33</v>
+        <v>29</v>
       </c>
     </row>
     <row r="45">
@@ -1290,48 +1290,48 @@
         <v>61</v>
       </c>
       <c r="D45" t="n">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="E45" t="n">
-        <v>34</v>
+        <v>31</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="inlineStr">
         <is>
-          <t>resistência e luta</t>
+          <t>vida cotidiana</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C46" t="n">
-        <v>80</v>
+        <v>107</v>
       </c>
       <c r="D46" t="n">
-        <v>27</v>
+        <v>18</v>
       </c>
       <c r="E46" t="n">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="inlineStr">
         <is>
-          <t>vida cotidiana</t>
+          <t>resistência e luta</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C47" t="n">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="D47" t="n">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="E47" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="48">
@@ -1347,10 +1347,10 @@
         <v>284</v>
       </c>
       <c r="D48" t="n">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="E48" t="n">
-        <v>42</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49">
@@ -1366,48 +1366,48 @@
         <v>346</v>
       </c>
       <c r="D49" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E49" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="inlineStr">
         <is>
-          <t>poesia e ensaio</t>
+          <t>reflexão</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>223</v>
+        <v>9</v>
       </c>
       <c r="C50" t="n">
-        <v>696</v>
+        <v>41</v>
       </c>
       <c r="D50" t="n">
-        <v>58</v>
+        <v>19</v>
       </c>
       <c r="E50" t="n">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="inlineStr">
         <is>
-          <t>reflexão</t>
+          <t>poesia e ensaio</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>9</v>
+        <v>223</v>
       </c>
       <c r="C51" t="n">
-        <v>41</v>
+        <v>696</v>
       </c>
       <c r="D51" t="n">
-        <v>27</v>
+        <v>56</v>
       </c>
       <c r="E51" t="n">
-        <v>58</v>
+        <v>50</v>
       </c>
     </row>
     <row r="52">
@@ -1426,7 +1426,7 @@
         <v>24</v>
       </c>
       <c r="E52" t="n">
-        <v>71</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
